--- a/building-algorithm/src/main/resources/algri.xlsx
+++ b/building-algorithm/src/main/resources/algri.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="极限" sheetId="5" r:id="rId1"/>
+    <sheet name="算法评判标准" sheetId="4" r:id="rId2"/>
+    <sheet name="brute.force" sheetId="3" r:id="rId3"/>
+    <sheet name="N Queue" sheetId="1" r:id="rId4"/>
+    <sheet name="BTree" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +22,386 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八皇后问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N,col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col-(n-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(N，col)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min(8-N,8-col) = Min(5,2)=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min(n-1,col-1)=Min(3-1,6-1)=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; ( N-min,col-min )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+2 =8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+2= 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（N+min,col+min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw ++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮力法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎适合所有场景和问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为评判其他算法的标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一：排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际排序前n-1个就好了，比较总数为：1+2+…+(n-1) = (n-1)/2 *(1+n-1)，时间复杂度为O(n^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;n-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-1-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（n-1)(1+n-1)/2=n*(n-1)/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法： selectSort[A[0..n-1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for   i=0 -&gt; n-2 do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    min_idx = i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j=i+1 -&gt;n-1 do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        if A[j] &lt; A[i]  min = j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   swap(A[i],A[j])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学公式：     ∑(i=0-&gt;n)f(i)=f(0)+f(1)+…+f(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较的时间复杂度O(n^2)，空间复杂度 n+1，但是键交换的时间复杂度是Omega(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设i=0，数据i开始比较后面的n-i个数据，找到最大的冒泡到最后，中间媒介int max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个i而言，比较的次数是0-&gt;n-i次，所以所有的比较次数为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-2  n-2-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=0   j=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">∑  ∑ 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =∑ (n-2-i +1) =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∑ (n-i-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 1 + 2 + 3 + …+ ( n-1) = (n-1)(n) / 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序 BubbleSort(A[0….n-1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    max &lt;-- x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for x ε [0, n-2]  do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j ε [0 , n-j-2] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        if A[j+1] &gt; A[j]  swap (A[j], A[j+1] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较次数的话，参考公式1.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最坏的情形是每次比较都要交换，即排序是倒序，和公式1.2.1是一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的情形是0，无需做任何的交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化： 每次都做比较，判断是否交换了，如果没有交换，那么说明数组有序，排序结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 总结，重点在于用∑来表示，用数字来表示，用公式来描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +409,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +499,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +596,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +631,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -333,10 +815,823 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/building-algorithm/src/main/resources/algri.xlsx
+++ b/building-algorithm/src/main/resources/algri.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
   <si>
     <t>蛮力法</t>
   </si>
@@ -273,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> t</t>
     </r>
     <r>
@@ -288,6 +295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -303,6 +317,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> t</t>
     </r>
     <r>
@@ -318,6 +339,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> t</t>
     </r>
     <r>
@@ -392,6 +420,96 @@
     <t>In random text, above algorithm can show a linear efficiency descriped as Θ(n). However, there exist a more complex and efficient algorithm designed by R.Boyer and J.Moore</t>
   </si>
   <si>
+    <t>最近对问题（The Closest Pair Problem)</t>
+  </si>
+  <si>
+    <t>Point[0...n-1]</t>
+  </si>
+  <si>
+    <t>point=(x,y)</t>
+  </si>
+  <si>
+    <t>p1,p2 is the nearest point</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>air flight,  post office, find the nearest station or the nearest the flight</t>
+  </si>
+  <si>
+    <t>the most import application is cluster analysis(聚类分析） in statistics（统计学）</t>
+  </si>
+  <si>
+    <t>Cluster Analysis</t>
+  </si>
+  <si>
+    <t>对于n个数据点集合，层次聚类分析希望基于某种相似度度量将数据点构成的簇按照层次关系组织。</t>
+  </si>
+  <si>
+    <t>对于数值型数据，相似度标准通常采用欧几里得距离</t>
+  </si>
+  <si>
+    <t>对于文本和其他非数值数据--&gt; 汉明距离（什么是汉明距离）</t>
+  </si>
+  <si>
+    <t>Simple two dimension based on cartesian coordinate system(x,y)，if p(i) = (xi,yi)，p(j)= (xj,yj) and then dis(pi,pj)=( (xi-xj)^2 + (yi-yj)^2)^(1/2)</t>
+  </si>
+  <si>
+    <t>caculate the distance between two any point, to avoid repeat, only caculate the point[j] where j &gt; i</t>
+  </si>
+  <si>
+    <t>BruteClosestPoint(Ponit[0...n-1]</t>
+  </si>
+  <si>
+    <t>d &lt;--- ∞</t>
+  </si>
+  <si>
+    <t>for i&lt;--1 to n-1 do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for j&lt;---- i+1 to n do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        d&lt;---min(d,sqrt((xi-xj)^2 + (yi-yj)^2))</t>
+  </si>
+  <si>
+    <t>return d</t>
+  </si>
+  <si>
+    <t>in fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's hard to run sqrt, and at the same time, if a&gt; b &lt;-&gt; sqrt(a) &gt; sqrt(b), it's absolute that we call </t>
+  </si>
+  <si>
+    <t>use compare the dis(pi,pj)^2 to replace the sqrt result.</t>
+  </si>
+  <si>
+    <t>And the basic operation above is to caculate the square, and the number of the operation is like following:</t>
+  </si>
+  <si>
+    <t>n-1  n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      n-1</t>
+  </si>
+  <si>
+    <t>∑  ∑ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 2 ∑ ( n-i)    =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 * (1 + 2 + 3 + …+ ( n-1) )= (n-1)(n)  ----&gt; O(n^2)</t>
+  </si>
+  <si>
+    <t>i=1   j=i+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      i=1</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -497,11 +615,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,29 +642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +659,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -568,15 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +689,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,6 +744,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,73 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -703,7 +800,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,7 +845,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,37 +929,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,13 +977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,115 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,6 +1024,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -968,6 +1046,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,15 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1007,17 +1085,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,152 +1124,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1214,10 +1281,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1288,7 +1361,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1570,10 +1643,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1872,44 +1945,64 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:8">
       <c r="B44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
       <c r="K45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="2:8">
+      <c r="B46" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
@@ -1960,7 +2053,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2062,8 +2155,8 @@
       <c r="B78" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="6">
@@ -2116,16 +2209,16 @@
       <c r="A86" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="19" t="s">
         <v>87</v>
       </c>
       <c r="F86" t="s">
@@ -2217,6 +2310,172 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>65</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="11"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,10 +2497,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -2275,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2308,7 +2567,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2326,7 +2585,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2372,7 +2631,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2448,24 +2707,24 @@
     </row>
     <row r="12" spans="14:14">
       <c r="N12" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2473,10 +2732,10 @@
         <v>-45</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2485,42 +2744,42 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="13:13">
       <c r="M16" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -2528,7 +2787,7 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2536,7 +2795,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2558,62 +2817,62 @@
   <sheetData>
     <row r="2" spans="13:13">
       <c r="M2" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="11:15">
       <c r="K3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="10:16">
       <c r="J4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="9:10">
       <c r="I5" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/building-algorithm/src/main/resources/algri.xlsx
+++ b/building-algorithm/src/main/resources/algri.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27876" windowHeight="13104" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="极限" sheetId="5" r:id="rId1"/>
@@ -614,9 +614,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -642,17 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,14 +657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,37 +673,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,11 +701,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,6 +722,44 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,14 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -845,157 +845,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,26 +1026,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,7 +1037,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,11 +1072,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,7 +1124,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,134 +1142,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1282,14 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1645,7 +1637,7 @@
   <sheetPr/>
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
       <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
@@ -1958,51 +1950,51 @@
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="K45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
@@ -2209,16 +2201,16 @@
       <c r="A86" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F86" t="s">
@@ -2448,34 +2440,34 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
-      <c r="H121" s="11"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="2:8">
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G122" s="13"/>
-      <c r="H122" s="14"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="2:8">
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="14"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
